--- a/final_data_pipeline/output/325180longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325180longform_elec_options.xlsx
@@ -1174,7 +1174,7 @@
         <v>102</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1221,7 +1221,7 @@
         <v>101</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1236,10 +1236,10 @@
         <v>43040.19259695899</v>
       </c>
       <c r="R11">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="S11">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="T11">
         <v>5.380024074619874</v>
@@ -1674,7 +1674,7 @@
         <v>102</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1721,7 +1721,7 @@
         <v>101</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1736,10 +1736,10 @@
         <v>35888.00851422216</v>
       </c>
       <c r="R21">
-        <v>0.9405645161290322</v>
+        <v>0.9495669873270495</v>
       </c>
       <c r="S21">
-        <v>0.9635833333333333</v>
+        <v>0.9731165936130245</v>
       </c>
       <c r="T21">
         <v>4.48600106427777</v>
@@ -1874,7 +1874,7 @@
         <v>102</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1921,7 +1921,7 @@
         <v>101</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -1936,10 +1936,10 @@
         <v>271528.9521856017</v>
       </c>
       <c r="R25">
-        <v>0.9405645161290322</v>
+        <v>0.9511946531936644</v>
       </c>
       <c r="S25">
-        <v>0.9635833333333333</v>
+        <v>0.9748408768576692</v>
       </c>
       <c r="T25">
         <v>33.94111902320021</v>
@@ -1974,7 +1974,7 @@
         <v>102</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -2021,7 +2021,7 @@
         <v>101</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -2036,10 +2036,10 @@
         <v>115580.0317946794</v>
       </c>
       <c r="R27">
-        <v>0.9405645161290322</v>
+        <v>0.9583158770332573</v>
       </c>
       <c r="S27">
-        <v>0.9635833333333333</v>
+        <v>0.9823871532785465</v>
       </c>
       <c r="T27">
         <v>14.44750397433493</v>
@@ -2374,7 +2374,7 @@
         <v>101</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L34">
         <v>8000</v>
@@ -2389,10 +2389,10 @@
         <v>85232.79659721626</v>
       </c>
       <c r="R34">
-        <v>0.9405645161290322</v>
+        <v>0.9712571710566898</v>
       </c>
       <c r="S34">
-        <v>0.9635833333333333</v>
+        <v>0.9961106502456767</v>
       </c>
       <c r="T34">
         <v>10.65409957465203</v>
@@ -2427,7 +2427,7 @@
         <v>102</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L35">
         <v>8000</v>
@@ -2674,7 +2674,7 @@
         <v>102</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -2721,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L41">
         <v>8000</v>
@@ -2736,10 +2736,10 @@
         <v>102483.8971167525</v>
       </c>
       <c r="R41">
-        <v>0.9405645161290322</v>
+        <v>0.9741566255742371</v>
       </c>
       <c r="S41">
-        <v>0.9635833333333333</v>
+        <v>0.9991870829399434</v>
       </c>
       <c r="T41">
         <v>12.81048713959406</v>
@@ -3074,7 +3074,7 @@
         <v>102</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L48">
         <v>8000</v>
@@ -3121,7 +3121,7 @@
         <v>101</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L49">
         <v>8000</v>
@@ -3136,10 +3136,10 @@
         <v>24327.06538088986</v>
       </c>
       <c r="R49">
-        <v>0.9405645161290322</v>
+        <v>0.9760891465058971</v>
       </c>
       <c r="S49">
-        <v>0.9635833333333333</v>
+        <v>1.001237913506406</v>
       </c>
       <c r="T49">
         <v>3.040883172611232</v>
@@ -3174,7 +3174,7 @@
         <v>102</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L50">
         <v>8000</v>
@@ -3221,7 +3221,7 @@
         <v>101</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3236,10 +3236,10 @@
         <v>29414.88774109125</v>
       </c>
       <c r="R51">
-        <v>0.9405645161290322</v>
+        <v>0.970793063583815</v>
       </c>
       <c r="S51">
-        <v>0.9635833333333333</v>
+        <v>0.995618273140397</v>
       </c>
       <c r="T51">
         <v>3.676860967636406</v>
@@ -3274,7 +3274,7 @@
         <v>101</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -3289,10 +3289,10 @@
         <v>63857.5285003954</v>
       </c>
       <c r="R52">
-        <v>0.9405645161290322</v>
+        <v>0.9760891465058971</v>
       </c>
       <c r="S52">
-        <v>0.9635833333333333</v>
+        <v>1.001237913506406</v>
       </c>
       <c r="T52">
         <v>7.982191062549425</v>
@@ -3327,7 +3327,7 @@
         <v>102</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L53">
         <v>8000</v>
@@ -3474,7 +3474,7 @@
         <v>102</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L56">
         <v>8000</v>
@@ -3921,7 +3921,7 @@
         <v>102</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L65">
         <v>8000</v>
@@ -3968,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L66">
         <v>8000</v>
@@ -3983,10 +3983,10 @@
         <v>61543.33164717858</v>
       </c>
       <c r="R66">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="S66">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="T66">
         <v>7.692916455897323</v>
@@ -4121,7 +4121,7 @@
         <v>102</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L69">
         <v>8000</v>
@@ -4168,7 +4168,7 @@
         <v>101</v>
       </c>
       <c r="K70">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L70">
         <v>8000</v>
@@ -4183,10 +4183,10 @@
         <v>138506.4124765754</v>
       </c>
       <c r="R70">
-        <v>0.9405645161290322</v>
+        <v>0.9712571710566898</v>
       </c>
       <c r="S70">
-        <v>0.9635833333333333</v>
+        <v>0.9961106502456767</v>
       </c>
       <c r="T70">
         <v>17.31330155957192</v>
@@ -4221,7 +4221,7 @@
         <v>102</v>
       </c>
       <c r="K71">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L71">
         <v>8000</v>
@@ -4268,7 +4268,7 @@
         <v>101</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L72">
         <v>8000</v>
@@ -4283,10 +4283,10 @@
         <v>4608.65326029847</v>
       </c>
       <c r="R72">
-        <v>0.9405645161290322</v>
+        <v>0.9521050214763401</v>
       </c>
       <c r="S72">
-        <v>0.9635833333333333</v>
+        <v>0.9758053708974481</v>
       </c>
       <c r="T72">
         <v>0.5760816575373088</v>
@@ -4321,7 +4321,7 @@
         <v>102</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L73">
         <v>8000</v>
@@ -4368,7 +4368,7 @@
         <v>101</v>
       </c>
       <c r="K74">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L74">
         <v>8000</v>
@@ -4383,10 +4383,10 @@
         <v>254359.3016213042</v>
       </c>
       <c r="R74">
-        <v>0.9405645161290322</v>
+        <v>0.9696645907267841</v>
       </c>
       <c r="S74">
-        <v>0.9635833333333333</v>
+        <v>0.9944211305850406</v>
       </c>
       <c r="T74">
         <v>31.79491270266302</v>
@@ -4421,7 +4421,7 @@
         <v>101</v>
       </c>
       <c r="K75">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="L75">
         <v>8000</v>
@@ -4436,10 +4436,10 @@
         <v>279333.6001559282</v>
       </c>
       <c r="R75">
-        <v>0.9405645161290322</v>
+        <v>0.9497676359185355</v>
       </c>
       <c r="S75">
-        <v>0.9635833333333333</v>
+        <v>0.9733291418446532</v>
       </c>
       <c r="T75">
         <v>34.91670001949102</v>
@@ -4474,7 +4474,7 @@
         <v>102</v>
       </c>
       <c r="K76">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="L76">
         <v>8000</v>
@@ -4568,7 +4568,7 @@
         <v>102</v>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L78">
         <v>8000</v>
@@ -4615,7 +4615,7 @@
         <v>101</v>
       </c>
       <c r="K79">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L79">
         <v>8000</v>
@@ -4630,10 +4630,10 @@
         <v>33942.23259680699</v>
       </c>
       <c r="R79">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="S79">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="T79">
         <v>4.242779074600874</v>
@@ -4668,7 +4668,7 @@
         <v>102</v>
       </c>
       <c r="K80">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L80">
         <v>8000</v>
@@ -4715,7 +4715,7 @@
         <v>101</v>
       </c>
       <c r="K81">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L81">
         <v>8000</v>
@@ -4730,10 +4730,10 @@
         <v>83154.29555197115</v>
       </c>
       <c r="R81">
-        <v>0.9405645161290322</v>
+        <v>0.9163022129108289</v>
       </c>
       <c r="S81">
-        <v>0.9635833333333333</v>
+        <v>0.9379207786940652</v>
       </c>
       <c r="T81">
         <v>10.39428694399639</v>
@@ -5068,7 +5068,7 @@
         <v>101</v>
       </c>
       <c r="K88">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L88">
         <v>8000</v>
@@ -5083,10 +5083,10 @@
         <v>2915.399335321758</v>
       </c>
       <c r="R88">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="S88">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="T88">
         <v>0.3644249169152198</v>
@@ -5121,7 +5121,7 @@
         <v>102</v>
       </c>
       <c r="K89">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L89">
         <v>8000</v>
@@ -5168,7 +5168,7 @@
         <v>101</v>
       </c>
       <c r="K90">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L90">
         <v>8000</v>
@@ -5183,10 +5183,10 @@
         <v>84591.37819971226</v>
       </c>
       <c r="R90">
-        <v>0.9405645161290322</v>
+        <v>0.9270655773901523</v>
       </c>
       <c r="S90">
-        <v>0.9635833333333333</v>
+        <v>0.9492998859749143</v>
       </c>
       <c r="T90">
         <v>10.57392227496403</v>
@@ -5221,7 +5221,7 @@
         <v>102</v>
       </c>
       <c r="K91">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L91">
         <v>8000</v>
@@ -5268,7 +5268,7 @@
         <v>101</v>
       </c>
       <c r="K92">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L92">
         <v>8000</v>
@@ -5283,10 +5283,10 @@
         <v>121046.5544900213</v>
       </c>
       <c r="R92">
-        <v>0.9405645161290322</v>
+        <v>0.9166889846297158</v>
       </c>
       <c r="S92">
-        <v>0.9635833333333333</v>
+        <v>0.9383295263284442</v>
       </c>
       <c r="T92">
         <v>15.13081931125267</v>
@@ -5321,7 +5321,7 @@
         <v>102</v>
       </c>
       <c r="K93">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L93">
         <v>8000</v>
@@ -5768,7 +5768,7 @@
         <v>101</v>
       </c>
       <c r="K102">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L102">
         <v>8000</v>
@@ -5783,10 +5783,10 @@
         <v>64794.45751674948</v>
       </c>
       <c r="R102">
-        <v>0.9405645161290322</v>
+        <v>0.9521050214763401</v>
       </c>
       <c r="S102">
-        <v>0.9635833333333333</v>
+        <v>0.9758053708974481</v>
       </c>
       <c r="T102">
         <v>8.099307189593684</v>
@@ -5821,7 +5821,7 @@
         <v>102</v>
       </c>
       <c r="K103">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L103">
         <v>8000</v>
@@ -5868,7 +5868,7 @@
         <v>101</v>
       </c>
       <c r="K104">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L104">
         <v>8000</v>
@@ -5883,10 +5883,10 @@
         <v>96305.66348079426</v>
       </c>
       <c r="R104">
-        <v>0.9405645161290322</v>
+        <v>0.9516859959956178</v>
       </c>
       <c r="S104">
-        <v>0.9635833333333333</v>
+        <v>0.9753614246104579</v>
       </c>
       <c r="T104">
         <v>12.03820793509928</v>
@@ -5921,7 +5921,7 @@
         <v>102</v>
       </c>
       <c r="K105">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L105">
         <v>8000</v>
@@ -6168,7 +6168,7 @@
         <v>102</v>
       </c>
       <c r="K110">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L110">
         <v>8000</v>
@@ -6215,7 +6215,7 @@
         <v>101</v>
       </c>
       <c r="K111">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L111">
         <v>8000</v>
@@ -6230,10 +6230,10 @@
         <v>54500.96489236086</v>
       </c>
       <c r="R111">
-        <v>0.9405645161290322</v>
+        <v>0.9163022129108289</v>
       </c>
       <c r="S111">
-        <v>0.9635833333333333</v>
+        <v>0.9379207786940652</v>
       </c>
       <c r="T111">
         <v>6.812620611545108</v>
@@ -6268,7 +6268,7 @@
         <v>101</v>
       </c>
       <c r="K112">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L112">
         <v>8000</v>
@@ -6283,10 +6283,10 @@
         <v>57082.41941120433</v>
       </c>
       <c r="R112">
-        <v>0.9405645161290322</v>
+        <v>0.9758169225763468</v>
       </c>
       <c r="S112">
-        <v>0.9635833333333333</v>
+        <v>1.000949006909155</v>
       </c>
       <c r="T112">
         <v>7.135302426400542</v>
@@ -6321,7 +6321,7 @@
         <v>102</v>
       </c>
       <c r="K113">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L113">
         <v>8000</v>
